--- a/data/progproj_GDP.xlsx
+++ b/data/progproj_GDP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanne\Desktop\3.6 programmeer project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanne\Documents\GitHub\Homework\Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D0B6604-990F-409A-9C12-BA9CC13232A6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95462D2-31EA-495F-A48E-160DB0EFC236}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" xr2:uid="{A119158E-01F1-49E6-8DE7-853398567FA5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Alaska</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Alabama</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>StateName</t>
   </si>
 </sst>
 </file>
@@ -527,15 +533,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930CEA68-4D78-4F1C-97AA-56B3887590E8}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1">
         <v>2011</v>
       </c>
@@ -714,841 +721,861 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>741455</v>
+        <v>107738</v>
       </c>
       <c r="C10" s="1">
-        <v>764136</v>
+        <v>109685</v>
       </c>
       <c r="D10" s="1">
-        <v>794644</v>
+        <v>111890</v>
       </c>
       <c r="E10" s="1">
-        <v>834123</v>
+        <v>116400</v>
       </c>
       <c r="F10" s="1">
-        <v>890884</v>
+        <v>121688</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>424126</v>
+        <v>741455</v>
       </c>
       <c r="C11" s="1">
-        <v>439058</v>
+        <v>764136</v>
       </c>
       <c r="D11" s="1">
-        <v>454238</v>
+        <v>794644</v>
       </c>
       <c r="E11" s="1">
-        <v>479138</v>
+        <v>834123</v>
       </c>
       <c r="F11" s="1">
-        <v>505693</v>
+        <v>890884</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
-        <v>70017</v>
+        <v>424126</v>
       </c>
       <c r="C12" s="1">
-        <v>72532</v>
+        <v>439058</v>
       </c>
       <c r="D12" s="1">
-        <v>74630</v>
+        <v>454238</v>
       </c>
       <c r="E12" s="1">
-        <v>77035</v>
+        <v>479138</v>
       </c>
       <c r="F12" s="1">
-        <v>81900</v>
+        <v>505693</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>56744</v>
+        <v>70017</v>
       </c>
       <c r="C13" s="1">
-        <v>58105</v>
+        <v>72532</v>
       </c>
       <c r="D13" s="1">
-        <v>60854</v>
+        <v>74630</v>
       </c>
       <c r="E13" s="1">
-        <v>63309</v>
+        <v>77035</v>
       </c>
       <c r="F13" s="1">
-        <v>65670</v>
+        <v>81900</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>679776</v>
+        <v>56744</v>
       </c>
       <c r="C14" s="1">
-        <v>711370</v>
+        <v>58105</v>
       </c>
       <c r="D14" s="1">
-        <v>721876</v>
+        <v>60854</v>
       </c>
       <c r="E14" s="1">
-        <v>751333</v>
+        <v>63309</v>
       </c>
       <c r="F14" s="1">
-        <v>778353</v>
+        <v>65670</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
-        <v>291570</v>
+        <v>679776</v>
       </c>
       <c r="C15" s="1">
-        <v>299996</v>
+        <v>711370</v>
       </c>
       <c r="D15" s="1">
-        <v>311150</v>
+        <v>721876</v>
       </c>
       <c r="E15" s="1">
-        <v>326049</v>
+        <v>751333</v>
       </c>
       <c r="F15" s="1">
-        <v>333436</v>
+        <v>778353</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
-        <v>148843</v>
+        <v>291570</v>
       </c>
       <c r="C16" s="1">
-        <v>158246</v>
+        <v>299996</v>
       </c>
       <c r="D16" s="1">
-        <v>162305</v>
+        <v>311150</v>
       </c>
       <c r="E16" s="1">
-        <v>171406</v>
+        <v>326049</v>
       </c>
       <c r="F16" s="1">
-        <v>180511</v>
+        <v>333436</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
-        <v>136884</v>
+        <v>148843</v>
       </c>
       <c r="C17" s="1">
-        <v>140964</v>
+        <v>158246</v>
       </c>
       <c r="D17" s="1">
-        <v>143471</v>
+        <v>162305</v>
       </c>
       <c r="E17" s="1">
-        <v>148368</v>
+        <v>171406</v>
       </c>
       <c r="F17" s="1">
-        <v>151677</v>
+        <v>180511</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
-        <v>171835</v>
+        <v>136884</v>
       </c>
       <c r="C18" s="1">
-        <v>177046</v>
+        <v>140964</v>
       </c>
       <c r="D18" s="1">
-        <v>181135</v>
+        <v>143471</v>
       </c>
       <c r="E18" s="1">
-        <v>185843</v>
+        <v>148368</v>
       </c>
       <c r="F18" s="1">
-        <v>190832</v>
+        <v>151677</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>236248</v>
+        <v>171835</v>
       </c>
       <c r="C19" s="1">
-        <v>241378</v>
+        <v>177046</v>
       </c>
       <c r="D19" s="1">
-        <v>234608</v>
+        <v>181135</v>
       </c>
       <c r="E19" s="1">
-        <v>243647</v>
+        <v>185843</v>
       </c>
       <c r="F19" s="1">
-        <v>242059</v>
+        <v>190832</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1">
-        <v>51490</v>
+        <v>236248</v>
       </c>
       <c r="C20" s="1">
-        <v>52580</v>
+        <v>241378</v>
       </c>
       <c r="D20" s="1">
-        <v>53348</v>
+        <v>234608</v>
       </c>
       <c r="E20" s="1">
-        <v>55456</v>
+        <v>243647</v>
       </c>
       <c r="F20" s="1">
-        <v>57242</v>
+        <v>242059</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>324830</v>
+        <v>51490</v>
       </c>
       <c r="C21" s="1">
-        <v>332500</v>
+        <v>52580</v>
       </c>
       <c r="D21" s="1">
-        <v>339443</v>
+        <v>53348</v>
       </c>
       <c r="E21" s="1">
-        <v>351047</v>
+        <v>55456</v>
       </c>
       <c r="F21" s="1">
-        <v>365162</v>
+        <v>57242</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>417283</v>
+        <v>324830</v>
       </c>
       <c r="C22" s="1">
-        <v>434098</v>
+        <v>332500</v>
       </c>
       <c r="D22" s="1">
-        <v>442090</v>
+        <v>339443</v>
       </c>
       <c r="E22" s="1">
-        <v>459774</v>
+        <v>351047</v>
       </c>
       <c r="F22" s="1">
-        <v>490402</v>
+        <v>365162</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1">
-        <v>399437</v>
+        <v>417283</v>
       </c>
       <c r="C23" s="1">
-        <v>416701</v>
+        <v>434098</v>
       </c>
       <c r="D23" s="1">
-        <v>429644</v>
+        <v>442090</v>
       </c>
       <c r="E23" s="1">
-        <v>445253</v>
+        <v>459774</v>
       </c>
       <c r="F23" s="1">
-        <v>470289</v>
+        <v>490402</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1">
-        <v>282397</v>
+        <v>399437</v>
       </c>
       <c r="C24" s="1">
-        <v>292920</v>
+        <v>416701</v>
       </c>
       <c r="D24" s="1">
-        <v>304063</v>
+        <v>429644</v>
       </c>
       <c r="E24" s="1">
-        <v>317648</v>
+        <v>445253</v>
       </c>
       <c r="F24" s="1">
-        <v>326221</v>
+        <v>470289</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1">
-        <v>96968</v>
+        <v>282397</v>
       </c>
       <c r="C25" s="1">
-        <v>101351</v>
+        <v>292920</v>
       </c>
       <c r="D25" s="1">
-        <v>103523</v>
+        <v>304063</v>
       </c>
       <c r="E25" s="1">
-        <v>104570</v>
+        <v>317648</v>
       </c>
       <c r="F25" s="1">
-        <v>106207</v>
+        <v>326221</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1">
-        <v>257225</v>
+        <v>96968</v>
       </c>
       <c r="C26" s="1">
-        <v>266245</v>
+        <v>101351</v>
       </c>
       <c r="D26" s="1">
-        <v>275911</v>
+        <v>103523</v>
       </c>
       <c r="E26" s="1">
-        <v>282535</v>
+        <v>104570</v>
       </c>
       <c r="F26" s="1">
-        <v>291764</v>
+        <v>106207</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>41187</v>
+        <v>257225</v>
       </c>
       <c r="C27" s="1">
-        <v>42349</v>
+        <v>266245</v>
       </c>
       <c r="D27" s="1">
-        <v>43229</v>
+        <v>275911</v>
       </c>
       <c r="E27" s="1">
-        <v>45101</v>
+        <v>282535</v>
       </c>
       <c r="F27" s="1">
-        <v>46179</v>
+        <v>291764</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
-        <v>99935</v>
+        <v>41187</v>
       </c>
       <c r="C28" s="1">
-        <v>101973</v>
+        <v>42349</v>
       </c>
       <c r="D28" s="1">
-        <v>106765</v>
+        <v>43229</v>
       </c>
       <c r="E28" s="1">
-        <v>112170</v>
+        <v>45101</v>
       </c>
       <c r="F28" s="1">
-        <v>116111</v>
+        <v>46179</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1">
-        <v>124445</v>
+        <v>99935</v>
       </c>
       <c r="C29" s="1">
-        <v>125440</v>
+        <v>101973</v>
       </c>
       <c r="D29" s="1">
-        <v>128205</v>
+        <v>106765</v>
       </c>
       <c r="E29" s="1">
-        <v>133071</v>
+        <v>112170</v>
       </c>
       <c r="F29" s="1">
-        <v>142081</v>
+        <v>116111</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
-        <v>65214</v>
+        <v>124445</v>
       </c>
       <c r="C30" s="1">
-        <v>66948</v>
+        <v>125440</v>
       </c>
       <c r="D30" s="1">
-        <v>68558</v>
+        <v>128205</v>
       </c>
       <c r="E30" s="1">
-        <v>71302</v>
+        <v>133071</v>
       </c>
       <c r="F30" s="1">
-        <v>75162</v>
+        <v>142081</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
-        <v>493343</v>
+        <v>65214</v>
       </c>
       <c r="C31" s="1">
-        <v>514662</v>
+        <v>66948</v>
       </c>
       <c r="D31" s="1">
-        <v>531072</v>
+        <v>68558</v>
       </c>
       <c r="E31" s="1">
-        <v>542774</v>
+        <v>71302</v>
       </c>
       <c r="F31" s="1">
-        <v>563616</v>
+        <v>75162</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1">
-        <v>89261</v>
+        <v>493343</v>
       </c>
       <c r="C32" s="1">
-        <v>90146</v>
+        <v>514662</v>
       </c>
       <c r="D32" s="1">
-        <v>90834</v>
+        <v>531072</v>
       </c>
       <c r="E32" s="1">
-        <v>94579</v>
+        <v>542774</v>
       </c>
       <c r="F32" s="1">
-        <v>92987</v>
+        <v>563616</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
-        <v>1229743</v>
+        <v>89261</v>
       </c>
       <c r="C33" s="1">
-        <v>1301041</v>
+        <v>90146</v>
       </c>
       <c r="D33" s="1">
-        <v>1330236</v>
+        <v>90834</v>
       </c>
       <c r="E33" s="1">
-        <v>1391549</v>
+        <v>94579</v>
       </c>
       <c r="F33" s="1">
-        <v>1458253</v>
+        <v>92987</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1">
-        <v>427974</v>
+        <v>1229743</v>
       </c>
       <c r="C34" s="1">
-        <v>438350</v>
+        <v>1301041</v>
       </c>
       <c r="D34" s="1">
-        <v>454945</v>
+        <v>1330236</v>
       </c>
       <c r="E34" s="1">
-        <v>475282</v>
+        <v>1391549</v>
       </c>
       <c r="F34" s="1">
-        <v>502077</v>
+        <v>1458253</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1">
-        <v>42164</v>
+        <v>427974</v>
       </c>
       <c r="C35" s="1">
-        <v>52493</v>
+        <v>438350</v>
       </c>
       <c r="D35" s="1">
-        <v>54965</v>
+        <v>454945</v>
       </c>
       <c r="E35" s="1">
-        <v>59518</v>
+        <v>475282</v>
       </c>
       <c r="F35" s="1">
-        <v>56253</v>
+        <v>502077</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
-        <v>528567</v>
+        <v>42164</v>
       </c>
       <c r="C36" s="1">
-        <v>550299</v>
+        <v>52493</v>
       </c>
       <c r="D36" s="1">
-        <v>564683</v>
+        <v>54965</v>
       </c>
       <c r="E36" s="1">
-        <v>595299</v>
+        <v>59518</v>
       </c>
       <c r="F36" s="1">
-        <v>611350</v>
+        <v>56253</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1">
-        <v>163868</v>
+        <v>528567</v>
       </c>
       <c r="C37" s="1">
-        <v>174305</v>
+        <v>550299</v>
       </c>
       <c r="D37" s="1">
-        <v>186007</v>
+        <v>564683</v>
       </c>
       <c r="E37" s="1">
-        <v>198636</v>
+        <v>595299</v>
       </c>
       <c r="F37" s="1">
-        <v>189612</v>
+        <v>611350</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
-        <v>199929</v>
+        <v>163868</v>
       </c>
       <c r="C38" s="1">
-        <v>196973</v>
+        <v>174305</v>
       </c>
       <c r="D38" s="1">
-        <v>196594</v>
+        <v>186007</v>
       </c>
       <c r="E38" s="1">
-        <v>202116</v>
+        <v>198636</v>
       </c>
       <c r="F38" s="1">
-        <v>215940</v>
+        <v>189612</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1">
-        <v>615411</v>
+        <v>199929</v>
       </c>
       <c r="C39" s="1">
-        <v>637896</v>
+        <v>196973</v>
       </c>
       <c r="D39" s="1">
-        <v>659792</v>
+        <v>196594</v>
       </c>
       <c r="E39" s="1">
-        <v>685695</v>
+        <v>202116</v>
       </c>
       <c r="F39" s="1">
-        <v>709722</v>
+        <v>215940</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1">
-        <v>49716</v>
+        <v>615411</v>
       </c>
       <c r="C40" s="1">
-        <v>50997</v>
+        <v>637896</v>
       </c>
       <c r="D40" s="1">
-        <v>52187</v>
+        <v>659792</v>
       </c>
       <c r="E40" s="1">
-        <v>53748</v>
+        <v>685695</v>
       </c>
       <c r="F40" s="1">
-        <v>56197</v>
+        <v>709722</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
-        <v>170193</v>
+        <v>49716</v>
       </c>
       <c r="C41" s="1">
-        <v>174567</v>
+        <v>50997</v>
       </c>
       <c r="D41" s="1">
-        <v>181556</v>
+        <v>52187</v>
       </c>
       <c r="E41" s="1">
-        <v>191149</v>
+        <v>53748</v>
       </c>
       <c r="F41" s="1">
-        <v>202807</v>
+        <v>56197</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1">
-        <v>42253</v>
+        <v>170193</v>
       </c>
       <c r="C42" s="1">
-        <v>43056</v>
+        <v>174567</v>
       </c>
       <c r="D42" s="1">
-        <v>44560</v>
+        <v>181556</v>
       </c>
       <c r="E42" s="1">
-        <v>45641</v>
+        <v>191149</v>
       </c>
       <c r="F42" s="1">
-        <v>47231</v>
+        <v>202807</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1">
-        <v>263175</v>
+        <v>42253</v>
       </c>
       <c r="C43" s="1">
-        <v>278298</v>
+        <v>43056</v>
       </c>
       <c r="D43" s="1">
-        <v>288012</v>
+        <v>44560</v>
       </c>
       <c r="E43" s="1">
-        <v>298803</v>
+        <v>45641</v>
       </c>
       <c r="F43" s="1">
-        <v>317325</v>
+        <v>47231</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1">
-        <v>1344733</v>
+        <v>263175</v>
       </c>
       <c r="C44" s="1">
-        <v>1437893</v>
+        <v>278298</v>
       </c>
       <c r="D44" s="1">
-        <v>1536472</v>
+        <v>288012</v>
       </c>
       <c r="E44" s="1">
-        <v>1612973</v>
+        <v>298803</v>
       </c>
       <c r="F44" s="1">
-        <v>1611958</v>
+        <v>317325</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
-        <v>124031</v>
+        <v>1344733</v>
       </c>
       <c r="C45" s="1">
-        <v>128018</v>
+        <v>1437893</v>
       </c>
       <c r="D45" s="1">
-        <v>133274</v>
+        <v>1536472</v>
       </c>
       <c r="E45" s="1">
-        <v>141090</v>
+        <v>1612973</v>
       </c>
       <c r="F45" s="1">
-        <v>149515</v>
+        <v>1611958</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
-        <v>27676</v>
+        <v>124031</v>
       </c>
       <c r="C46" s="1">
-        <v>28195</v>
+        <v>128018</v>
       </c>
       <c r="D46" s="1">
-        <v>28690</v>
+        <v>133274</v>
       </c>
       <c r="E46" s="1">
-        <v>29420</v>
+        <v>141090</v>
       </c>
       <c r="F46" s="1">
-        <v>30299</v>
+        <v>149515</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1">
-        <v>429174</v>
+        <v>27676</v>
       </c>
       <c r="C47" s="1">
-        <v>441144</v>
+        <v>28195</v>
       </c>
       <c r="D47" s="1">
-        <v>449235</v>
+        <v>28690</v>
       </c>
       <c r="E47" s="1">
-        <v>459242</v>
+        <v>29420</v>
       </c>
       <c r="F47" s="1">
-        <v>479669</v>
+        <v>30299</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1">
-        <v>370149</v>
+        <v>429174</v>
       </c>
       <c r="C48" s="1">
-        <v>388922</v>
+        <v>441144</v>
       </c>
       <c r="D48" s="1">
-        <v>405561</v>
+        <v>449235</v>
       </c>
       <c r="E48" s="1">
-        <v>427242</v>
+        <v>459242</v>
       </c>
       <c r="F48" s="1">
-        <v>453186</v>
+        <v>479669</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1">
-        <v>70945</v>
+        <v>370149</v>
       </c>
       <c r="C49" s="1">
-        <v>70969</v>
+        <v>388922</v>
       </c>
       <c r="D49" s="1">
-        <v>72082</v>
+        <v>405561</v>
       </c>
       <c r="E49" s="1">
-        <v>73731</v>
+        <v>427242</v>
       </c>
       <c r="F49" s="1">
-        <v>72583</v>
+        <v>453186</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1">
-        <v>262463</v>
+        <v>70945</v>
       </c>
       <c r="C50" s="1">
-        <v>272420</v>
+        <v>70969</v>
       </c>
       <c r="D50" s="1">
-        <v>281569</v>
+        <v>72082</v>
       </c>
       <c r="E50" s="1">
-        <v>291258</v>
+        <v>73731</v>
       </c>
       <c r="F50" s="1">
-        <v>303826</v>
+        <v>72583</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1">
+        <v>262463</v>
+      </c>
+      <c r="C51" s="1">
+        <v>272420</v>
+      </c>
+      <c r="D51" s="1">
+        <v>281569</v>
+      </c>
+      <c r="E51" s="1">
+        <v>291258</v>
+      </c>
+      <c r="F51" s="1">
+        <v>303826</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="1">
         <v>41499</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>40201</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D52" s="1">
         <v>40968</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E52" s="1">
         <v>41521</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>39474</v>
       </c>
     </row>
